--- a/Document/Test Case Pra UAS/Test Case Add Event.xlsx
+++ b/Document/Test Case Pra UAS/Test Case Add Event.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Add Event" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="49">
   <si>
     <t>ID Skenario</t>
   </si>
@@ -45,18 +45,9 @@
     <t>Transportation Field</t>
   </si>
   <si>
-    <t>Start Date &amp; Time Field</t>
-  </si>
-  <si>
     <t>End Date  &amp; Time</t>
   </si>
   <si>
-    <t>Keterangan Field</t>
-  </si>
-  <si>
-    <t>Add Button</t>
-  </si>
-  <si>
     <t>Hasil</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Halaman kalender yang menampilkan event yang baru ditambahkan</t>
   </si>
   <si>
-    <t>Add event sukses, 1 field kosong</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Add event gagal, start date &amp; time field kosong</t>
   </si>
   <si>
-    <t>Peringatan  start date &amp; time belum diisi</t>
-  </si>
-  <si>
     <t>Add event gagal, end date &amp; time field kosong</t>
   </si>
   <si>
@@ -129,15 +114,9 @@
     <t>Add First Event gagal, start location field kosong</t>
   </si>
   <si>
-    <t>Peringatan  end start location belum diisi</t>
-  </si>
-  <si>
     <t>SKA -1</t>
   </si>
   <si>
-    <t>SKA -2</t>
-  </si>
-  <si>
     <t>SKA -3</t>
   </si>
   <si>
@@ -163,6 +142,30 @@
   </si>
   <si>
     <t>SKA -11</t>
+  </si>
+  <si>
+    <t>Arrival Date &amp; Time Field</t>
+  </si>
+  <si>
+    <t>Submit Button</t>
+  </si>
+  <si>
+    <t>View Route Button</t>
+  </si>
+  <si>
+    <t>ViewRoute Via Toll Button</t>
+  </si>
+  <si>
+    <t>Menampilkan rute tanpa melewati toll</t>
+  </si>
+  <si>
+    <t>Menampilkan rute melewati toll</t>
+  </si>
+  <si>
+    <t>Peringatan arrival date &amp; time belum diisi</t>
+  </si>
+  <si>
+    <t>Peringatan end start location belum diisi</t>
   </si>
 </sst>
 </file>
@@ -294,25 +297,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,571 +610,751 @@
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42.6" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>36</v>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="14">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
